--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.1251740271677</v>
+        <v>4.439248</v>
       </c>
       <c r="H2">
-        <v>3.1251740271677</v>
+        <v>13.317744</v>
       </c>
       <c r="I2">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="J2">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>22.12330903235562</v>
+        <v>104.9251675201547</v>
       </c>
       <c r="R2">
-        <v>22.12330903235562</v>
+        <v>944.3265076813919</v>
       </c>
       <c r="S2">
-        <v>0.005777439973167354</v>
+        <v>0.02180252146240675</v>
       </c>
       <c r="T2">
-        <v>0.005777439973167354</v>
+        <v>0.02180252146240675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.1251740271677</v>
+        <v>4.439248</v>
       </c>
       <c r="H3">
-        <v>3.1251740271677</v>
+        <v>13.317744</v>
       </c>
       <c r="I3">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="J3">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>565.3878407161375</v>
+        <v>804.7841286497174</v>
       </c>
       <c r="R3">
-        <v>565.3878407161375</v>
+        <v>7243.057157847456</v>
       </c>
       <c r="S3">
-        <v>0.1476494455019771</v>
+        <v>0.1672270214304817</v>
       </c>
       <c r="T3">
-        <v>0.1476494455019771</v>
+        <v>0.1672270214304816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.1251740271677</v>
+        <v>4.439248</v>
       </c>
       <c r="H4">
-        <v>3.1251740271677</v>
+        <v>13.317744</v>
       </c>
       <c r="I4">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="J4">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>316.1493882926985</v>
+        <v>493.2028781091573</v>
       </c>
       <c r="R4">
-        <v>316.1493882926985</v>
+        <v>4438.825902982416</v>
       </c>
       <c r="S4">
-        <v>0.0825615241708785</v>
+        <v>0.1024831943511567</v>
       </c>
       <c r="T4">
-        <v>0.0825615241708785</v>
+        <v>0.1024831943511567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.1251740271677</v>
+        <v>4.439248</v>
       </c>
       <c r="H5">
-        <v>3.1251740271677</v>
+        <v>13.317744</v>
       </c>
       <c r="I5">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="J5">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>93.895842568817</v>
+        <v>133.8124270744213</v>
       </c>
       <c r="R5">
-        <v>93.895842568817</v>
+        <v>1204.311843669792</v>
       </c>
       <c r="S5">
-        <v>0.02452063537954163</v>
+        <v>0.02780503841146032</v>
       </c>
       <c r="T5">
-        <v>0.02452063537954163</v>
+        <v>0.02780503841146032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.75842309943972</v>
+        <v>3.893859666666666</v>
       </c>
       <c r="H6">
-        <v>3.75842309943972</v>
+        <v>11.681579</v>
       </c>
       <c r="I6">
-        <v>0.3132955809582262</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="J6">
-        <v>0.3132955809582262</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>26.60612016496415</v>
+        <v>92.03447922372743</v>
       </c>
       <c r="R6">
-        <v>26.60612016496415</v>
+        <v>828.310313013547</v>
       </c>
       <c r="S6">
-        <v>0.006948113500884852</v>
+        <v>0.01912395048758258</v>
       </c>
       <c r="T6">
-        <v>0.006948113500884852</v>
+        <v>0.01912395048758258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.75842309943972</v>
+        <v>3.893859666666666</v>
       </c>
       <c r="H7">
-        <v>3.75842309943972</v>
+        <v>11.681579</v>
       </c>
       <c r="I7">
-        <v>0.3132955809582262</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="J7">
-        <v>0.3132955809582262</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>679.9514850108053</v>
+        <v>705.9115550477495</v>
       </c>
       <c r="R7">
-        <v>679.9514850108053</v>
+        <v>6353.203995429746</v>
       </c>
       <c r="S7">
-        <v>0.1775674192124978</v>
+        <v>0.1466821754326306</v>
       </c>
       <c r="T7">
-        <v>0.1775674192124978</v>
+        <v>0.1466821754326306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.75842309943972</v>
+        <v>3.893859666666666</v>
       </c>
       <c r="H8">
-        <v>3.75842309943972</v>
+        <v>11.681579</v>
       </c>
       <c r="I8">
-        <v>0.3132955809582262</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="J8">
-        <v>0.3132955809582262</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>380.2102390150366</v>
+        <v>432.6099363119978</v>
       </c>
       <c r="R8">
-        <v>380.2102390150366</v>
+        <v>3893.48942680798</v>
       </c>
       <c r="S8">
-        <v>0.09929083528509994</v>
+        <v>0.08989251715496185</v>
       </c>
       <c r="T8">
-        <v>0.09929083528509994</v>
+        <v>0.08989251715496187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.75842309943972</v>
+        <v>3.893859666666666</v>
       </c>
       <c r="H9">
-        <v>3.75842309943972</v>
+        <v>11.681579</v>
       </c>
       <c r="I9">
-        <v>0.3132955809582262</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="J9">
-        <v>0.3132955809582262</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>112.9218087006264</v>
+        <v>117.3727650908135</v>
       </c>
       <c r="R9">
-        <v>112.9218087006264</v>
+        <v>1056.354885817322</v>
       </c>
       <c r="S9">
-        <v>0.02948921295974368</v>
+        <v>0.02438902210475799</v>
       </c>
       <c r="T9">
-        <v>0.02948921295974368</v>
+        <v>0.024389022104758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.39611698161782</v>
+        <v>1.735205333333333</v>
       </c>
       <c r="H10">
-        <v>1.39611698161782</v>
+        <v>5.205616</v>
       </c>
       <c r="I10">
-        <v>0.1163778715884341</v>
+        <v>0.1248143621049263</v>
       </c>
       <c r="J10">
-        <v>0.1163778715884341</v>
+        <v>0.1248143621049263</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>9.883202394857602</v>
+        <v>41.01296216878755</v>
       </c>
       <c r="R10">
-        <v>9.883202394857602</v>
+        <v>369.116659519088</v>
       </c>
       <c r="S10">
-        <v>0.002580970527304243</v>
+        <v>0.008522130667555104</v>
       </c>
       <c r="T10">
-        <v>0.002580970527304243</v>
+        <v>0.008522130667555104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.39611698161782</v>
+        <v>1.735205333333333</v>
       </c>
       <c r="H11">
-        <v>1.39611698161782</v>
+        <v>5.205616</v>
       </c>
       <c r="I11">
-        <v>0.1163778715884341</v>
+        <v>0.1248143621049263</v>
       </c>
       <c r="J11">
-        <v>0.1163778715884341</v>
+        <v>0.1248143621049263</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>252.5771553078614</v>
+        <v>314.5725835130204</v>
       </c>
       <c r="R11">
-        <v>252.5771553078614</v>
+        <v>2831.153251617184</v>
       </c>
       <c r="S11">
-        <v>0.06595981420547742</v>
+        <v>0.06536539960453198</v>
       </c>
       <c r="T11">
-        <v>0.06595981420547742</v>
+        <v>0.06536539960453197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.39611698161782</v>
+        <v>1.735205333333333</v>
       </c>
       <c r="H12">
-        <v>1.39611698161782</v>
+        <v>5.205616</v>
       </c>
       <c r="I12">
-        <v>0.1163778715884341</v>
+        <v>0.1248143621049263</v>
       </c>
       <c r="J12">
-        <v>0.1163778715884341</v>
+        <v>0.1248143621049263</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>141.2342243620718</v>
+        <v>192.7822605338471</v>
       </c>
       <c r="R12">
-        <v>141.2342243620718</v>
+        <v>1735.040344804624</v>
       </c>
       <c r="S12">
-        <v>0.03688292073375418</v>
+        <v>0.04005844805587874</v>
       </c>
       <c r="T12">
-        <v>0.03688292073375418</v>
+        <v>0.04005844805587875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.39611698161782</v>
+        <v>1.735205333333333</v>
       </c>
       <c r="H13">
-        <v>1.39611698161782</v>
+        <v>5.205616</v>
       </c>
       <c r="I13">
-        <v>0.1163778715884341</v>
+        <v>0.1248143621049263</v>
       </c>
       <c r="J13">
-        <v>0.1163778715884341</v>
+        <v>0.1248143621049263</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>41.94632976405586</v>
+        <v>52.30436261407644</v>
       </c>
       <c r="R13">
-        <v>41.94632976405586</v>
+        <v>470.7392635266879</v>
       </c>
       <c r="S13">
-        <v>0.01095416612189827</v>
+        <v>0.01086838377696045</v>
       </c>
       <c r="T13">
-        <v>0.01095416612189827</v>
+        <v>0.01086838377696045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.71669863383912</v>
+        <v>3.833976</v>
       </c>
       <c r="H14">
-        <v>3.71669863383912</v>
+        <v>11.501928</v>
       </c>
       <c r="I14">
-        <v>0.3098175024277754</v>
+        <v>0.2757801970596353</v>
       </c>
       <c r="J14">
-        <v>0.3098175024277754</v>
+        <v>0.2757801970596353</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>26.31074997480276</v>
+        <v>90.61908099485599</v>
       </c>
       <c r="R14">
-        <v>26.31074997480276</v>
+        <v>815.571728953704</v>
       </c>
       <c r="S14">
-        <v>0.006870978405903142</v>
+        <v>0.01882984325866732</v>
       </c>
       <c r="T14">
-        <v>0.006870978405903142</v>
+        <v>0.01882984325866732</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.71669863383912</v>
+        <v>3.833976</v>
       </c>
       <c r="H15">
-        <v>3.71669863383912</v>
+        <v>11.501928</v>
       </c>
       <c r="I15">
-        <v>0.3098175024277754</v>
+        <v>0.2757801970596353</v>
       </c>
       <c r="J15">
-        <v>0.3098175024277754</v>
+        <v>0.2757801970596353</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>672.4029436157081</v>
+        <v>695.055341450608</v>
       </c>
       <c r="R15">
-        <v>672.4029436157081</v>
+        <v>6255.498073055472</v>
       </c>
       <c r="S15">
-        <v>0.175596138843392</v>
+        <v>0.1444263502998599</v>
       </c>
       <c r="T15">
-        <v>0.175596138843392</v>
+        <v>0.1444263502998598</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.71669863383912</v>
+        <v>3.833976</v>
       </c>
       <c r="H16">
-        <v>3.71669863383912</v>
+        <v>11.501928</v>
       </c>
       <c r="I16">
-        <v>0.3098175024277754</v>
+        <v>0.2757801970596353</v>
       </c>
       <c r="J16">
-        <v>0.3098175024277754</v>
+        <v>0.2757801970596353</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>375.9893015050623</v>
+        <v>425.956828228888</v>
       </c>
       <c r="R16">
-        <v>375.9893015050623</v>
+        <v>3833.611454059992</v>
       </c>
       <c r="S16">
-        <v>0.09818854931790119</v>
+        <v>0.08851006016011502</v>
       </c>
       <c r="T16">
-        <v>0.09818854931790119</v>
+        <v>0.08851006016011502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.71669863383912</v>
+        <v>3.833976</v>
       </c>
       <c r="H17">
-        <v>3.71669863383912</v>
+        <v>11.501928</v>
       </c>
       <c r="I17">
-        <v>0.3098175024277754</v>
+        <v>0.2757801970596353</v>
       </c>
       <c r="J17">
-        <v>0.3098175024277754</v>
+        <v>0.2757801970596353</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>111.6681972795522</v>
+        <v>115.567689371056</v>
       </c>
       <c r="R17">
-        <v>111.6681972795522</v>
+        <v>1040.109204339504</v>
       </c>
       <c r="S17">
-        <v>0.02916183586057914</v>
+        <v>0.02401394334099311</v>
       </c>
       <c r="T17">
-        <v>0.02916183586057914</v>
+        <v>0.02401394334099311</v>
       </c>
     </row>
   </sheetData>
